--- a/dataset/Intent_Matching/Intent.xlsx
+++ b/dataset/Intent_Matching/Intent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Desktop\HAI\Coursework_1\hai\dataset\Intent_Matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B213E9F2-8ECC-4CA7-A8FD-66DA11A98B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F362E2-A29D-46D3-9468-9B0E706F3AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15024" yWindow="3684" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>my name is</t>
   </si>
@@ -208,6 +208,51 @@
   </si>
   <si>
     <t>Labels</t>
+  </si>
+  <si>
+    <t>How do I get to the airport from the hotel?</t>
+  </si>
+  <si>
+    <t>Can I have some more towels in my room please</t>
+  </si>
+  <si>
+    <t>Can I have fresh bedding please</t>
+  </si>
+  <si>
+    <t>Can I reset my safe?</t>
+  </si>
+  <si>
+    <t>I spilled a drink in my room! Can someone clean it up?</t>
+  </si>
+  <si>
+    <t>When does breakfast start?</t>
+  </si>
+  <si>
+    <t>When is breakfast?</t>
+  </si>
+  <si>
+    <t>What time is breakfast?</t>
+  </si>
+  <si>
+    <t>Is there a gym?</t>
+  </si>
+  <si>
+    <t>When is the gym open?</t>
+  </si>
+  <si>
+    <t>Can I cancel my booking?</t>
+  </si>
+  <si>
+    <t>Does cancelling a booking cost?</t>
+  </si>
+  <si>
+    <t>Can I change the dates on my booking?</t>
+  </si>
+  <si>
+    <t>Where is my booking information?</t>
+  </si>
+  <si>
+    <t>I can't access my booking email, what do I do?</t>
   </si>
 </sst>
 </file>
@@ -525,15 +570,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -541,7 +586,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -549,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -557,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -565,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -573,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -581,7 +626,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -589,7 +634,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -597,7 +642,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -605,7 +650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -613,7 +658,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -621,7 +666,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -629,7 +674,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -637,7 +682,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -645,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -653,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -661,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -669,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -677,7 +722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -685,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -693,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -701,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -709,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -717,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -725,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -733,7 +778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -741,7 +786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -749,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -757,7 +802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -765,7 +810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -773,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -781,7 +826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -789,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -797,7 +842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -805,7 +850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -813,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -821,7 +866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -829,7 +874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -837,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -845,7 +890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -853,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -861,7 +906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -869,7 +914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -877,7 +922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -885,7 +930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -893,7 +938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -901,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -909,7 +954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -917,7 +962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -925,7 +970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -933,7 +978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -941,7 +986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -949,7 +994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -957,7 +1002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -965,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -973,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -981,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -989,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -997,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1005,12 +1050,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60">
         <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
